--- a/PREVAH/output_data_glaciated/KGE_V947.xlsx
+++ b/PREVAH/output_data_glaciated/KGE_V947.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\PycharmProjects\FROSTBYTE_PREVAH\PREVAH\output_data_glaciated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637F06F4-7A6F-44FF-99C5-689C917D2B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37817440-AC7F-454D-9C71-2C50CABB755F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{533AE47B-8AA4-4A1C-8714-DB054E372FD0}"/>
+    <workbookView xWindow="28695" yWindow="-2130" windowWidth="14610" windowHeight="15585" xr2:uid="{533AE47B-8AA4-4A1C-8714-DB054E372FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>1Jan-30Sep</t>
   </si>
@@ -63,16 +63,109 @@
   </si>
   <si>
     <t>1Sep-30Sep</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Poly 2. degree</t>
+  </si>
+  <si>
+    <t>01/01</t>
+  </si>
+  <si>
+    <t>01/02</t>
+  </si>
+  <si>
+    <t>01/03</t>
+  </si>
+  <si>
+    <t>01/04</t>
+  </si>
+  <si>
+    <t>01/05</t>
+  </si>
+  <si>
+    <t>01/06</t>
+  </si>
+  <si>
+    <t>01/07</t>
+  </si>
+  <si>
+    <t>01/08</t>
+  </si>
+  <si>
+    <t>01/09</t>
+  </si>
+  <si>
+    <t>GL_Vol_1Jan-30Sep</t>
+  </si>
+  <si>
+    <t>GL_Vol_1Feb-30Sep</t>
+  </si>
+  <si>
+    <t>GL_Vol_1Mar-30Sep</t>
+  </si>
+  <si>
+    <t>GL_Vol_1Apr-30Sep</t>
+  </si>
+  <si>
+    <t>GL_Vol_1May-30Sep</t>
+  </si>
+  <si>
+    <t>GL_Vol_1Jun-30Sep</t>
+  </si>
+  <si>
+    <t>GL_Vol_1Jul-30Sep</t>
+  </si>
+  <si>
+    <t>GL_Vol_1Aug-30Sep</t>
+  </si>
+  <si>
+    <t>GL_Vol_1Sep-30Sep</t>
+  </si>
+  <si>
+    <t>01/01-30/09</t>
+  </si>
+  <si>
+    <t>01/02-30/09</t>
+  </si>
+  <si>
+    <t>01/03-30/09</t>
+  </si>
+  <si>
+    <t>01/04-30/09</t>
+  </si>
+  <si>
+    <t>01/05-30/09</t>
+  </si>
+  <si>
+    <t>01/06-30/09</t>
+  </si>
+  <si>
+    <t>01/07-30/09</t>
+  </si>
+  <si>
+    <t>01/08-30/09</t>
+  </si>
+  <si>
+    <t>01/09-30/09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,9 +191,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -173,7 +267,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>Sheet1!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -208,7 +302,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$J$1</c:f>
+              <c:f>Sheet1!$B$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -244,7 +338,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$J$2</c:f>
+              <c:f>Sheet1!$B$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -266,7 +360,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>Sheet1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -301,7 +395,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$J$1</c:f>
+              <c:f>Sheet1!$B$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -337,7 +431,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$J$3</c:f>
+              <c:f>Sheet1!$B$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -362,7 +456,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>Sheet1!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -397,7 +491,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$J$1</c:f>
+              <c:f>Sheet1!$B$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -433,7 +527,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$J$4</c:f>
+              <c:f>Sheet1!$B$5:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -461,7 +555,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>Sheet1!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -496,7 +590,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$J$1</c:f>
+              <c:f>Sheet1!$B$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -532,7 +626,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$J$5</c:f>
+              <c:f>Sheet1!$B$6:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -563,7 +657,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
+              <c:f>Sheet1!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -598,7 +692,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$J$1</c:f>
+              <c:f>Sheet1!$B$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -634,7 +728,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$J$6</c:f>
+              <c:f>Sheet1!$B$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -668,7 +762,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
+              <c:f>Sheet1!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -703,7 +797,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$J$1</c:f>
+              <c:f>Sheet1!$B$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -739,7 +833,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$J$7</c:f>
+              <c:f>Sheet1!$B$8:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -776,7 +870,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
+              <c:f>Sheet1!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -817,7 +911,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$J$1</c:f>
+              <c:f>Sheet1!$B$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -853,7 +947,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$J$8</c:f>
+              <c:f>Sheet1!$B$9:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -893,7 +987,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$9</c:f>
+              <c:f>Sheet1!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -934,7 +1028,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$J$1</c:f>
+              <c:f>Sheet1!$B$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -970,7 +1064,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$J$9</c:f>
+              <c:f>Sheet1!$B$10:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1013,7 +1107,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$10</c:f>
+              <c:f>Sheet1!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1054,7 +1148,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$J$1</c:f>
+              <c:f>Sheet1!$B$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1090,7 +1184,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$J$10</c:f>
+              <c:f>Sheet1!$B$11:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1879,16 +1973,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>46037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2233,227 +2327,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B334B635-6344-4422-9AE2-F8EA053D43AE}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B1" s="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="1">
         <v>45658</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C2" s="1">
         <v>45689</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D2" s="1">
         <v>45717</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E2" s="1">
         <v>45748</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F2" s="1">
         <v>45778</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G2" s="1">
         <v>45809</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H2" s="1">
         <v>45839</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I2" s="1">
         <v>45870</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J2" s="1">
         <v>45901</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>-0.14430000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>-6.59E-2</v>
-      </c>
-      <c r="C3">
-        <v>0.18729999999999999</v>
+        <v>-0.14430000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>-9.7900000000000001E-2</v>
+        <v>-6.59E-2</v>
       </c>
       <c r="C4">
-        <v>0.18640000000000001</v>
-      </c>
-      <c r="D4">
-        <v>0.29530000000000001</v>
+        <v>0.18729999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>-8.72E-2</v>
+        <v>-9.7900000000000001E-2</v>
       </c>
       <c r="C5">
-        <v>0.19209999999999999</v>
+        <v>0.18640000000000001</v>
       </c>
       <c r="D5">
-        <v>0.2621</v>
-      </c>
-      <c r="E5">
-        <v>0.3669</v>
+        <v>0.29530000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>5.8500000000000003E-2</v>
+        <v>-8.72E-2</v>
       </c>
       <c r="C6">
-        <v>0.29089999999999999</v>
+        <v>0.19209999999999999</v>
       </c>
       <c r="D6">
-        <v>0.41620000000000001</v>
+        <v>0.2621</v>
       </c>
       <c r="E6">
-        <v>0.43840000000000001</v>
-      </c>
-      <c r="F6">
-        <v>0.41670000000000001</v>
+        <v>0.3669</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>0.1125</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="C7">
-        <v>0.27160000000000001</v>
+        <v>0.29089999999999999</v>
       </c>
       <c r="D7">
-        <v>0.2858</v>
+        <v>0.41620000000000001</v>
       </c>
       <c r="E7">
-        <v>0.36130000000000001</v>
+        <v>0.43840000000000001</v>
       </c>
       <c r="F7">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="G7">
-        <v>0.40870000000000001</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>-9.64E-2</v>
+        <v>0.1125</v>
       </c>
       <c r="C8">
-        <v>-0.26910000000000001</v>
+        <v>0.27160000000000001</v>
       </c>
       <c r="D8">
-        <v>4.5100000000000001E-2</v>
+        <v>0.2858</v>
       </c>
       <c r="E8">
-        <v>0.1037</v>
+        <v>0.36130000000000001</v>
       </c>
       <c r="F8">
-        <v>9.2700000000000005E-2</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="G8">
-        <v>0.22889999999999999</v>
-      </c>
-      <c r="H8">
-        <v>0.30309999999999998</v>
+        <v>0.40870000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>-0.38190000000000002</v>
+        <v>-9.64E-2</v>
       </c>
       <c r="C9">
-        <v>-5.0299999999999997E-2</v>
+        <v>-0.26910000000000001</v>
       </c>
       <c r="D9">
-        <v>-7.9200000000000007E-2</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="E9">
-        <v>-3.0000000000000001E-3</v>
+        <v>0.1037</v>
       </c>
       <c r="F9">
-        <v>-0.18820000000000001</v>
+        <v>9.2700000000000005E-2</v>
       </c>
       <c r="G9">
-        <v>-0.13769999999999999</v>
+        <v>0.22889999999999999</v>
       </c>
       <c r="H9">
-        <v>-6.4999999999999997E-3</v>
-      </c>
-      <c r="I9">
-        <v>7.2400000000000006E-2</v>
+        <v>0.30309999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>-0.38190000000000002</v>
+      </c>
+      <c r="C10">
+        <v>-5.0299999999999997E-2</v>
+      </c>
+      <c r="D10">
+        <v>-7.9200000000000007E-2</v>
+      </c>
+      <c r="E10">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="F10">
+        <v>-0.18820000000000001</v>
+      </c>
+      <c r="G10">
+        <v>-0.13769999999999999</v>
+      </c>
+      <c r="H10">
+        <v>-6.4999999999999997E-3</v>
+      </c>
+      <c r="I10">
+        <v>7.2400000000000006E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>-0.20200000000000001</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>-0.2099</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>-0.152</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>-0.46260000000000001</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>-0.2576</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>-0.496</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>-0.30509999999999998</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>-0.52649999999999997</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>-0.39500000000000002</v>
       </c>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>4.9500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.25879999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0.12540000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.28889999999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.32619999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.2903</v>
+      </c>
+      <c r="D18">
+        <v>0.38250000000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.41289999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>0.13869999999999999</v>
+      </c>
+      <c r="C19">
+        <v>0.36720000000000003</v>
+      </c>
+      <c r="D19">
+        <v>0.43030000000000002</v>
+      </c>
+      <c r="E19">
+        <v>0.4985</v>
+      </c>
+      <c r="F19">
+        <v>0.50029999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>0.24010000000000001</v>
+      </c>
+      <c r="C20">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="D20">
+        <v>0.33539999999999998</v>
+      </c>
+      <c r="E20">
+        <v>0.39729999999999999</v>
+      </c>
+      <c r="F20">
+        <v>0.29139999999999999</v>
+      </c>
+      <c r="G20">
+        <v>0.43890000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="C21">
+        <v>0.11609999999999999</v>
+      </c>
+      <c r="D21">
+        <v>0.158</v>
+      </c>
+      <c r="E21">
+        <v>0.23269999999999999</v>
+      </c>
+      <c r="F21">
+        <v>0.24390000000000001</v>
+      </c>
+      <c r="G21">
+        <v>0.35880000000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.5232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>0.24440000000000001</v>
+      </c>
+      <c r="C22">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.1671</v>
+      </c>
+      <c r="E22">
+        <v>0.1855</v>
+      </c>
+      <c r="F22">
+        <v>0.17030000000000001</v>
+      </c>
+      <c r="G22">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.20380000000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.18920000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>-8.8599999999999998E-2</v>
+      </c>
+      <c r="C23">
+        <v>-9.2200000000000004E-2</v>
+      </c>
+      <c r="D23">
+        <v>-0.20369999999999999</v>
+      </c>
+      <c r="E23">
+        <v>-0.29260000000000003</v>
+      </c>
+      <c r="F23">
+        <v>-0.38009999999999999</v>
+      </c>
+      <c r="G23">
+        <v>-0.31909999999999999</v>
+      </c>
+      <c r="H23">
+        <v>-0.17760000000000001</v>
+      </c>
+      <c r="I23">
+        <v>-0.38500000000000001</v>
+      </c>
+      <c r="J23">
+        <v>-0.35859999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
